--- a/PC-ORD/Original Data/combined_2018.xlsx
+++ b/PC-ORD/Original Data/combined_2018.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedar\Documents\GitHub\Thesis\PC-ORD\Original Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA4A2B89-E503-4A02-A90A-3BB329A4AFF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C424FAC0-3A27-425B-A2E4-B42CB103957C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combined_2018" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>RowName</t>
   </si>
@@ -68,18 +68,9 @@
     <t>Corydalidae</t>
   </si>
   <si>
-    <t>Diptera</t>
-  </si>
-  <si>
     <t>Dixidae</t>
   </si>
   <si>
-    <t>DIxidae</t>
-  </si>
-  <si>
-    <t>Dyticidae</t>
-  </si>
-  <si>
     <t>Dytiscidae</t>
   </si>
   <si>
@@ -89,18 +80,9 @@
     <t>Ephemerellidae</t>
   </si>
   <si>
-    <t>Ephemeroptera</t>
-  </si>
-  <si>
-    <t>Gastropod</t>
-  </si>
-  <si>
     <t>Gerridae</t>
   </si>
   <si>
-    <t>Glossosomatidae</t>
-  </si>
-  <si>
     <t>Glossostomatidae</t>
   </si>
   <si>
@@ -144,9 +126,6 @@
   </si>
   <si>
     <t>Philopotamidae</t>
-  </si>
-  <si>
-    <t>Plecoptera</t>
   </si>
   <si>
     <t>Psychodidae</t>
@@ -245,7 +224,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -625,17 +604,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AR21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AS1" sqref="AS1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="256" width="11" customWidth="1"/>
+    <col min="1" max="249" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -768,31 +749,10 @@
       <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>44</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>51</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -834,120 +794,99 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>37.037037040000001</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>37.037037040000001</v>
+        <v>148.14814809999999</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>555.55555560000005</v>
       </c>
       <c r="T2">
-        <v>148.14814809999999</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>481.48148149999997</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>74.074074069999995</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>555.55555560000005</v>
+        <v>74.074074069999995</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>185.18518520000001</v>
       </c>
       <c r="AA2">
-        <v>481.48148149999997</v>
+        <v>111.1111111</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>518.51851850000003</v>
       </c>
       <c r="AC2">
-        <v>74.074074069999995</v>
+        <v>370.37037040000001</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>2888.8888889999998</v>
       </c>
       <c r="AE2">
         <v>74.074074069999995</v>
       </c>
       <c r="AF2">
-        <v>185.18518520000001</v>
+        <v>666.66666669999995</v>
       </c>
       <c r="AG2">
         <v>111.1111111</v>
       </c>
       <c r="AH2">
-        <v>518.51851850000003</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>370.37037040000001</v>
+        <v>74.074074069999995</v>
       </c>
       <c r="AJ2">
-        <v>2888.8888889999998</v>
+        <v>481.48148149999997</v>
       </c>
       <c r="AK2">
-        <v>74.074074069999995</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>666.66666669999995</v>
+        <v>0</v>
       </c>
       <c r="AM2">
+        <v>37.037037040000001</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
         <v>111.1111111</v>
       </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
       <c r="AP2">
-        <v>74.074074069999995</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>481.48148149999997</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0</v>
       </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>37.037037040000001</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>111.1111111</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>66.666666669999998</v>
@@ -986,123 +925,102 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>333.33333340000001</v>
       </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>33.333333340000003</v>
+      </c>
+      <c r="Q3">
+        <v>1133.3333339999999</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>233.33333339999999</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>800.00000009999997</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>133.33333329999999</v>
+      </c>
+      <c r="X3">
+        <v>233.33333339999999</v>
+      </c>
+      <c r="Y3">
+        <v>66.666666669999998</v>
+      </c>
+      <c r="Z3">
+        <v>200</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
         <v>333.33333340000001</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
+      <c r="AC3">
+        <v>600.00000009999997</v>
+      </c>
+      <c r="AD3">
+        <v>966.66666680000003</v>
+      </c>
+      <c r="AE3">
+        <v>400</v>
+      </c>
+      <c r="AF3">
+        <v>733.33333340000001</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>33.333333330000002</v>
+      </c>
+      <c r="AI3">
+        <v>233.33333339999999</v>
+      </c>
+      <c r="AJ3">
+        <v>733.33333340000001</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>166.66666670000001</v>
+      </c>
+      <c r="AN3">
         <v>33.333333340000003</v>
       </c>
-      <c r="T3">
-        <v>1133.3333339999999</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>233.33333339999999</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>800.00000009999997</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>133.33333329999999</v>
-      </c>
-      <c r="AD3">
-        <v>233.33333339999999</v>
-      </c>
-      <c r="AE3">
-        <v>66.666666669999998</v>
-      </c>
-      <c r="AF3">
-        <v>200</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>333.33333340000001</v>
-      </c>
-      <c r="AI3">
-        <v>600.00000009999997</v>
-      </c>
-      <c r="AJ3">
-        <v>966.66666680000003</v>
-      </c>
-      <c r="AK3">
-        <v>400</v>
-      </c>
-      <c r="AL3">
-        <v>733.33333340000001</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
       <c r="AO3">
-        <v>33.333333330000002</v>
+        <v>133.33333339999999</v>
       </c>
       <c r="AP3">
-        <v>233.33333339999999</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>733.33333340000001</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>166.66666670000001</v>
-      </c>
-      <c r="AU3">
-        <v>33.333333340000003</v>
-      </c>
-      <c r="AV3">
-        <v>133.33333339999999</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1141,28 +1059,28 @@
         <v>74.074074069999995</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>74.074074069999995</v>
       </c>
       <c r="O4">
         <v>74.074074069999995</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>111.1111111</v>
       </c>
       <c r="Q4">
-        <v>74.074074069999995</v>
+        <v>185.18518520000001</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>37.037037040000001</v>
       </c>
       <c r="S4">
-        <v>111.1111111</v>
+        <v>296.29629629999999</v>
       </c>
       <c r="T4">
-        <v>185.18518520000001</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>37.037037040000001</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1174,46 +1092,46 @@
         <v>0</v>
       </c>
       <c r="Y4">
+        <v>111.1111111</v>
+      </c>
+      <c r="Z4">
+        <v>259.2592593</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>1962.9629629999999</v>
+      </c>
+      <c r="AC4">
         <v>296.29629629999999</v>
       </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>37.037037040000001</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>37.037037040000001</v>
-      </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>296.29629629999999</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>15.87301587</v>
+      </c>
+      <c r="AJ4">
         <v>111.1111111</v>
       </c>
-      <c r="AF4">
-        <v>259.2592593</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>1962.9629629999999</v>
-      </c>
-      <c r="AI4">
-        <v>296.29629629999999</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>296.29629629999999</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1222,42 +1140,21 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>111.1111111</v>
       </c>
       <c r="AP4">
-        <v>15.87301587</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>111.1111111</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>111.1111111</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
         <v>31.74603175</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1296,123 +1193,102 @@
         <v>74.074074069999995</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>148.14814809999999</v>
       </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>37.037037040000001</v>
+      </c>
+      <c r="Q5">
+        <v>37.037037040000001</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>333.33333329999999</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>333.33333329999999</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>222.2222222</v>
+      </c>
+      <c r="Z5">
+        <v>333.33333329999999</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>1444.444444</v>
+      </c>
+      <c r="AC5">
+        <v>592.59259259999999</v>
+      </c>
+      <c r="AD5">
+        <v>37.037037040000001</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>407.40740740000001</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>111.1111111</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
         <v>148.14814809999999</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>37.037037040000001</v>
-      </c>
-      <c r="T5">
-        <v>37.037037040000001</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>333.33333329999999</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>333.33333329999999</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>222.2222222</v>
-      </c>
-      <c r="AF5">
-        <v>333.33333329999999</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>1444.444444</v>
-      </c>
-      <c r="AI5">
-        <v>592.59259259999999</v>
-      </c>
-      <c r="AJ5">
-        <v>37.037037040000001</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>407.40740740000001</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>111.1111111</v>
+        <v>0</v>
       </c>
       <c r="AR5">
         <v>0</v>
       </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>148.14814809999999</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>47.619047629999997</v>
@@ -1451,123 +1327,102 @@
         <v>95.238095259999994</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>190.4761905</v>
       </c>
       <c r="O6">
-        <v>190.4761905</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>142.85714290000001</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>47.619047639999998</v>
       </c>
       <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>285.71428580000003</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>285.71428580000003</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>523.80952390000004</v>
+      </c>
+      <c r="Z6">
+        <v>428.57142870000001</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>1571.428572</v>
+      </c>
+      <c r="AC6">
+        <v>809.52380970000002</v>
+      </c>
+      <c r="AD6">
+        <v>1285.7142859999999</v>
+      </c>
+      <c r="AE6">
+        <v>2523.8095239999998</v>
+      </c>
+      <c r="AF6">
+        <v>238.09523809999999</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>333.33333340000001</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>47.619047629999997</v>
+      </c>
+      <c r="AM6">
+        <v>95.238095259999994</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
         <v>142.85714290000001</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>47.619047639999998</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>285.71428580000003</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>285.71428580000003</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>523.80952390000004</v>
-      </c>
-      <c r="AF6">
-        <v>428.57142870000001</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>1571.428572</v>
-      </c>
-      <c r="AI6">
-        <v>809.52380970000002</v>
-      </c>
-      <c r="AJ6">
-        <v>1285.7142859999999</v>
-      </c>
-      <c r="AK6">
-        <v>2523.8095239999998</v>
-      </c>
-      <c r="AL6">
-        <v>238.09523809999999</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
       <c r="AP6">
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>333.33333340000001</v>
+        <v>0</v>
       </c>
       <c r="AR6">
         <v>0</v>
       </c>
-      <c r="AS6">
-        <v>47.619047629999997</v>
-      </c>
-      <c r="AT6">
-        <v>95.238095259999994</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>142.85714290000001</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1606,123 +1461,102 @@
         <v>12.34567901</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>555.55555560000005</v>
       </c>
       <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>111.1111111</v>
+      </c>
+      <c r="Q7">
+        <v>111.1111111</v>
+      </c>
+      <c r="R7">
+        <v>111.1111111</v>
+      </c>
+      <c r="S7">
+        <v>333.33333329999999</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>666.66666669999995</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>777.77777779999997</v>
+      </c>
+      <c r="X7">
+        <v>222.2222222</v>
+      </c>
+      <c r="Y7">
+        <v>444.44444440000001</v>
+      </c>
+      <c r="Z7">
+        <v>222.2222222</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>1888.8888890000001</v>
+      </c>
+      <c r="AC7">
+        <v>1555.555556</v>
+      </c>
+      <c r="AD7">
+        <v>1777.7777779999999</v>
+      </c>
+      <c r="AE7">
+        <v>1222.2222220000001</v>
+      </c>
+      <c r="AF7">
+        <v>1135.802469</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>24.691358019999999</v>
+      </c>
+      <c r="AJ7">
+        <v>679.01234569999997</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
         <v>555.55555560000005</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
         <v>111.1111111</v>
       </c>
-      <c r="T7">
-        <v>111.1111111</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>111.1111111</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>333.33333329999999</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>666.66666669999995</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>777.77777779999997</v>
-      </c>
-      <c r="AD7">
-        <v>222.2222222</v>
-      </c>
-      <c r="AE7">
-        <v>444.44444440000001</v>
-      </c>
-      <c r="AF7">
-        <v>222.2222222</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>1888.8888890000001</v>
-      </c>
-      <c r="AI7">
-        <v>1555.555556</v>
-      </c>
-      <c r="AJ7">
-        <v>1777.7777779999999</v>
-      </c>
-      <c r="AK7">
-        <v>1222.2222220000001</v>
-      </c>
-      <c r="AL7">
-        <v>1135.802469</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
       <c r="AP7">
-        <v>24.691358019999999</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
-        <v>679.01234569999997</v>
+        <v>0</v>
       </c>
       <c r="AR7">
         <v>0</v>
       </c>
-      <c r="AS7">
-        <v>555.55555560000005</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>111.1111111</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1761,123 +1595,102 @@
         <v>13.88888889</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>277.77777780000002</v>
       </c>
       <c r="O8">
-        <v>277.77777780000002</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>388.88888889999998</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>555.55555560000005</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>55.555555560000002</v>
       </c>
       <c r="S8">
+        <v>166.66666670000001</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>722.22222220000003</v>
+      </c>
+      <c r="V8">
+        <v>833.33333330000005</v>
+      </c>
+      <c r="W8">
+        <v>3513.8888889999998</v>
+      </c>
+      <c r="X8">
+        <v>55.555555560000002</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>55.555555560000002</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>1555.555556</v>
+      </c>
+      <c r="AC8">
         <v>388.88888889999998</v>
       </c>
-      <c r="T8">
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>1277.7777779999999</v>
+      </c>
+      <c r="AG8">
+        <v>111.1111111</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>555.55555560000005</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
         <v>55.555555560000002</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>166.66666670000001</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>722.22222220000003</v>
-      </c>
-      <c r="AB8">
-        <v>833.33333330000005</v>
-      </c>
-      <c r="AC8">
-        <v>3513.8888889999998</v>
-      </c>
-      <c r="AD8">
-        <v>55.555555560000002</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>55.555555560000002</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>1555.555556</v>
-      </c>
-      <c r="AI8">
-        <v>388.88888889999998</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>1277.7777779999999</v>
-      </c>
-      <c r="AM8">
-        <v>111.1111111</v>
-      </c>
       <c r="AN8">
         <v>0</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>222.2222222</v>
       </c>
       <c r="AP8">
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>555.55555560000005</v>
+        <v>0</v>
       </c>
       <c r="AR8">
         <v>0</v>
       </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>55.555555560000002</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>222.2222222</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1922,117 +1735,96 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>333.33333329999999</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>733.33333340000001</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>333.33333329999999</v>
+        <v>666.66666669999995</v>
       </c>
       <c r="T9">
-        <v>733.33333340000001</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>666.66666669999995</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>66.666666669999998</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>3466.666667</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>666.66666669999995</v>
+        <v>66.666666669999998</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>133.33333329999999</v>
       </c>
       <c r="AA9">
-        <v>666.66666669999995</v>
+        <v>0</v>
       </c>
       <c r="AB9">
+        <v>1466.666667</v>
+      </c>
+      <c r="AC9">
+        <v>200</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>866.66666669999995</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>266.66666670000001</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
         <v>66.666666669999998</v>
       </c>
-      <c r="AC9">
-        <v>3466.666667</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
         <v>66.666666669999998</v>
       </c>
-      <c r="AF9">
-        <v>133.33333329999999</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>1466.666667</v>
-      </c>
-      <c r="AI9">
-        <v>200</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>866.66666669999995</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
       <c r="AP9">
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>266.66666670000001</v>
+        <v>0</v>
       </c>
       <c r="AR9">
         <v>0</v>
       </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>66.666666669999998</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>66.666666669999998</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2077,73 +1869,73 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>600.00000020000004</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>133.33333339999999</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>600.00000020000004</v>
+        <v>400.00000019999999</v>
       </c>
       <c r="T10">
-        <v>133.33333339999999</v>
+        <v>66.66666669</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1133.3333339999999</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1466.666667</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
+        <v>266.66666679999997</v>
+      </c>
+      <c r="Z10">
         <v>400.00000019999999</v>
       </c>
-      <c r="Z10">
-        <v>66.66666669</v>
-      </c>
       <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>533.33333349999998</v>
+      </c>
+      <c r="AC10">
+        <v>1000</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
         <v>1133.3333339999999</v>
       </c>
-      <c r="AB10">
-        <v>1000</v>
-      </c>
-      <c r="AC10">
-        <v>1466.666667</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>266.66666679999997</v>
-      </c>
-      <c r="AF10">
-        <v>400.00000019999999</v>
-      </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
         <v>533.33333349999998</v>
       </c>
-      <c r="AI10">
-        <v>1000</v>
-      </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>666.6666669</v>
       </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>1133.3333339999999</v>
+        <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -2155,39 +1947,18 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>533.33333349999998</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
-        <v>666.6666669</v>
+        <v>0</v>
       </c>
       <c r="AR10">
         <v>0</v>
       </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2232,117 +2003,96 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>933.33333340000001</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>600</v>
+        <v>533.33333340000001</v>
       </c>
       <c r="T11">
-        <v>933.33333340000001</v>
+        <v>66.666666669999998</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1133.333333</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>333.33333329999999</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>533.33333340000001</v>
+        <v>400</v>
       </c>
       <c r="Z11">
+        <v>1266.666667</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>666.66666669999995</v>
+      </c>
+      <c r="AC11">
+        <v>1200</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>960</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>306.66666670000001</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
         <v>66.666666669999998</v>
       </c>
-      <c r="AA11">
-        <v>1133.333333</v>
-      </c>
-      <c r="AB11">
-        <v>333.33333329999999</v>
-      </c>
-      <c r="AC11">
-        <v>1800</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>400</v>
-      </c>
-      <c r="AF11">
-        <v>1266.666667</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>666.66666669999995</v>
-      </c>
-      <c r="AI11">
-        <v>1200</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>960</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
       <c r="AP11">
         <v>0</v>
       </c>
       <c r="AQ11">
-        <v>306.66666670000001</v>
+        <v>0</v>
       </c>
       <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>66.666666669999998</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
         <v>133.33333329999999</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2381,37 +2131,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
         <v>2</v>
       </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -2420,22 +2170,22 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
         <v>2</v>
       </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
       <c r="AD12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG12">
         <v>0</v>
@@ -2444,16 +2194,16 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -2468,36 +2218,15 @@
         <v>0</v>
       </c>
       <c r="AQ12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR12">
         <v>0</v>
       </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2536,61 +2265,61 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
         <v>2</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>1</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>1</v>
-      </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -2602,57 +2331,36 @@
         <v>0</v>
       </c>
       <c r="AJ13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN13">
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13">
         <v>0</v>
       </c>
       <c r="AQ13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR13">
         <v>0</v>
       </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>1</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>1</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2706,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -2718,10 +2426,10 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -2730,25 +2438,25 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -2763,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -2778,36 +2486,15 @@
         <v>0</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR14">
         <v>0</v>
       </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2855,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2864,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -2885,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -2903,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -2912,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15">
         <v>0</v>
@@ -2921,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -2933,36 +2620,15 @@
         <v>0</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR15">
         <v>0</v>
       </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>1</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
-      <c r="AW15">
-        <v>0</v>
-      </c>
-      <c r="AX15">
-        <v>0</v>
-      </c>
-      <c r="AY15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3001,123 +2667,102 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
         <v>2</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
         <v>2</v>
       </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>3</v>
+      </c>
+      <c r="AE16">
+        <v>3</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
         <v>2</v>
       </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>28</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
         <v>2</v>
       </c>
-      <c r="AF16">
-        <v>1</v>
-      </c>
-      <c r="AG16">
-        <v>1</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>1</v>
-      </c>
-      <c r="AJ16">
-        <v>3</v>
-      </c>
-      <c r="AK16">
-        <v>3</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
       <c r="AP16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>2</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>2</v>
-      </c>
-      <c r="AW16">
-        <v>1</v>
-      </c>
-      <c r="AX16">
-        <v>1</v>
-      </c>
-      <c r="AY16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3126,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -3156,123 +2801,102 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
         <v>2</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
       <c r="R17">
         <v>1</v>
       </c>
       <c r="S17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>12</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
         <v>2</v>
       </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>1</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>1</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>12</v>
-      </c>
       <c r="AD17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG17">
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AK17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
         <v>3</v>
       </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR17">
         <v>0</v>
       </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>1</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>1</v>
-      </c>
-      <c r="AW17">
-        <v>3</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3317,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -3326,108 +2950,87 @@
         <v>0</v>
       </c>
       <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>3</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
         <v>4</v>
       </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>3</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>3</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>1</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>1</v>
-      </c>
       <c r="AR18">
         <v>0</v>
       </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>3</v>
-      </c>
-      <c r="AW18">
-        <v>0</v>
-      </c>
-      <c r="AX18">
-        <v>4</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3436,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -3466,123 +3069,102 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
         <v>2</v>
       </c>
-      <c r="T19">
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
         <v>2</v>
       </c>
-      <c r="U19">
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>3</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>3</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
         <v>2</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>2</v>
-      </c>
-      <c r="X19">
-        <v>3</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>1</v>
-      </c>
-      <c r="AB19">
-        <v>2</v>
-      </c>
-      <c r="AC19">
-        <v>1</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>2</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>1</v>
-      </c>
-      <c r="AM19">
-        <v>1</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
       <c r="AQ19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>0</v>
       </c>
-      <c r="AS19">
-        <v>1</v>
-      </c>
-      <c r="AT19">
-        <v>3</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <v>0</v>
-      </c>
-      <c r="AW19">
-        <v>2</v>
-      </c>
-      <c r="AX19">
-        <v>1</v>
-      </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3621,123 +3203,102 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
         <v>2</v>
       </c>
-      <c r="P20">
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
         <v>3</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>3</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
       <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
         <v>2</v>
       </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
         <v>2</v>
       </c>
-      <c r="AB20">
-        <v>1</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>1</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
         <v>2</v>
       </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR20">
         <v>0</v>
       </c>
-      <c r="AS20">
-        <v>0</v>
-      </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
-        <v>1</v>
-      </c>
-      <c r="AW20">
-        <v>2</v>
-      </c>
-      <c r="AX20">
-        <v>0</v>
-      </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3797,14 +3358,14 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
         <v>3</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
       <c r="X21">
         <v>0</v>
       </c>
@@ -3815,13 +3376,13 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -3842,51 +3403,30 @@
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR21">
-        <v>1</v>
-      </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
-      <c r="AT21">
-        <v>1</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
-        <v>1</v>
-      </c>
-      <c r="AW21">
-        <v>4</v>
-      </c>
-      <c r="AX21">
-        <v>0</v>
-      </c>
-      <c r="AY21">
         <v>0</v>
       </c>
     </row>
